--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
@@ -447,7 +447,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -455,34 +455,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="27.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.08984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4108,273 +4109,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{784E8A32-6C7F-4BBD-A9EB-34482BE5DCFD}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1AD1663-AB3B-4D2D-AC1F-EAEE63B16E11}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FC8EFB2-0D4F-4CDA-B342-4E2438D35088}"/>
 </file>
--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
     <t>NO</t>
   </si>
   <si>
+    <t>{evento.datiAssenso.tipoAssenso,=,1 },{evento.datiAssenso.tipoAssenso,=,3}</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -86,6 +92,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -260,12 +269,18 @@
     <t>evento.madre</t>
   </si>
   <si>
+    <t>{evento.datiAssenso.tipoAssenso,=,2}</t>
+  </si>
+  <si>
     <t>Padre</t>
   </si>
   <si>
     <t>evento.padre</t>
   </si>
   <si>
+    <t>{evento.datiAssenso.tipoAssenso,=,1}</t>
+  </si>
+  <si>
     <t>Figlio</t>
   </si>
   <si>
@@ -356,6 +371,9 @@
     <t>avvenuto</t>
   </si>
   <si>
+    <t>{evento.datiAssenso.tipoAssenso,!=,2}</t>
+  </si>
+  <si>
     <t>evento.riconoscimentoPadre.atto</t>
   </si>
   <si>
@@ -365,6 +383,9 @@
     <t>evento.riconoscimentoMadre</t>
   </si>
   <si>
+    <t>{evento.datiAssenso.tipoAssenso,!=,1}</t>
+  </si>
+  <si>
     <t>evento.riconoscimentoMadre.atto</t>
   </si>
   <si>
@@ -374,6 +395,9 @@
     <t>evento.riconoscimento.atto</t>
   </si>
   <si>
+    <t>{evento.datiAssenso.tipoAssenso,!=,3}</t>
+  </si>
+  <si>
     <t>Interprete</t>
   </si>
   <si>
@@ -381,6 +405,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -472,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -484,6 +511,7 @@
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="69.23828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -505,185 +533,215 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -705,3405 +763,3918 @@
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F130" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Atto di riconoscimento</t>
+    <t>Copia dell'atto di assenso del figlio</t>
   </si>
   <si>
     <t>NO</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,52 +32,55 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Copia dell'atto di assenso del figlio</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>{evento.datiAssenso.tipoAssenso,=,1 },{evento.datiAssenso.tipoAssenso,=,3}</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>111-bis</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Copia dell'atto di assenso del figlio</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>{evento.datiAssenso.tipoAssenso,=,1 },{evento.datiAssenso.tipoAssenso,=,3}</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>111-bis</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -764,3917 +767,3917 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -53,7 +53,7 @@
     <t>NO</t>
   </si>
   <si>
-    <t>{evento.datiAssenso.tipoAssenso,=,1 },{evento.datiAssenso.tipoAssenso,=,3}</t>
+    <t>evento.datiAssenso.tipoAssenso,=,1</t>
   </si>
   <si>
     <t>Formula</t>
@@ -272,7 +272,7 @@
     <t>evento.madre</t>
   </si>
   <si>
-    <t>{evento.datiAssenso.tipoAssenso,=,2}</t>
+    <t>evento.datiAssenso.tipoAssenso,=,2</t>
   </si>
   <si>
     <t>Padre</t>
@@ -281,9 +281,6 @@
     <t>evento.padre</t>
   </si>
   <si>
-    <t>{evento.datiAssenso.tipoAssenso,=,1}</t>
-  </si>
-  <si>
     <t>Figlio</t>
   </si>
   <si>
@@ -374,7 +371,7 @@
     <t>avvenuto</t>
   </si>
   <si>
-    <t>{evento.datiAssenso.tipoAssenso,!=,2}</t>
+    <t>evento.datiAssenso.tipoAssenso,!=,2</t>
   </si>
   <si>
     <t>evento.riconoscimentoPadre.atto</t>
@@ -386,7 +383,7 @@
     <t>evento.riconoscimentoMadre</t>
   </si>
   <si>
-    <t>{evento.datiAssenso.tipoAssenso,!=,1}</t>
+    <t>evento.datiAssenso.tipoAssenso,!=,1</t>
   </si>
   <si>
     <t>evento.riconoscimentoMadre.atto</t>
@@ -398,7 +395,7 @@
     <t>evento.riconoscimento.atto</t>
   </si>
   <si>
-    <t>{evento.datiAssenso.tipoAssenso,!=,3}</t>
+    <t>evento.datiAssenso.tipoAssenso,!=,3</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -410,7 +407,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -514,7 +511,7 @@
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="69.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="33.9453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1940,7 +1937,7 @@
         <v>15</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -1963,7 +1960,7 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -1986,7 +1983,7 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -2009,7 +2006,7 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -2032,7 +2029,7 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -2055,7 +2052,7 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -2078,7 +2075,7 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -2101,7 +2098,7 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70">
@@ -2124,7 +2121,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -2147,7 +2144,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
@@ -2170,7 +2167,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
@@ -2193,7 +2190,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -2216,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -2239,7 +2236,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -2262,7 +2259,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -2285,7 +2282,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -2308,7 +2305,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79">
@@ -2331,7 +2328,7 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
@@ -2354,7 +2351,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -2377,7 +2374,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -2400,7 +2397,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
@@ -2423,12 +2420,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>39</v>
@@ -2437,7 +2434,7 @@
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>41</v>
@@ -2451,7 +2448,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>42</v>
@@ -2460,7 +2457,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>43</v>
@@ -2474,7 +2471,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>44</v>
@@ -2483,7 +2480,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>45</v>
@@ -2497,7 +2494,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>46</v>
@@ -2506,7 +2503,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>47</v>
@@ -2520,7 +2517,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>48</v>
@@ -2529,7 +2526,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>49</v>
@@ -2543,7 +2540,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>50</v>
@@ -2552,7 +2549,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>51</v>
@@ -2566,7 +2563,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>52</v>
@@ -2575,7 +2572,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>53</v>
@@ -2589,7 +2586,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>54</v>
@@ -2598,7 +2595,7 @@
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>55</v>
@@ -2612,7 +2609,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>56</v>
@@ -2621,7 +2618,7 @@
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>57</v>
@@ -2635,7 +2632,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>58</v>
@@ -2644,7 +2641,7 @@
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>59</v>
@@ -2658,7 +2655,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>60</v>
@@ -2667,7 +2664,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>61</v>
@@ -2681,7 +2678,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>62</v>
@@ -2690,7 +2687,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>63</v>
@@ -2704,7 +2701,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>64</v>
@@ -2713,7 +2710,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>65</v>
@@ -2727,7 +2724,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>66</v>
@@ -2736,7 +2733,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>67</v>
@@ -2750,7 +2747,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>68</v>
@@ -2759,7 +2756,7 @@
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>69</v>
@@ -2773,7 +2770,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>70</v>
@@ -2782,7 +2779,7 @@
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>71</v>
@@ -2796,7 +2793,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>72</v>
@@ -2805,7 +2802,7 @@
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>73</v>
@@ -2819,7 +2816,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>74</v>
@@ -2828,7 +2825,7 @@
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>75</v>
@@ -2842,7 +2839,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>76</v>
@@ -2851,7 +2848,7 @@
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>77</v>
@@ -2865,7 +2862,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>78</v>
@@ -2874,7 +2871,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>79</v>
@@ -2888,7 +2885,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>80</v>
@@ -2897,7 +2894,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>81</v>
@@ -2911,7 +2908,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>82</v>
@@ -2920,7 +2917,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>83</v>
@@ -2934,19 +2931,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2957,19 +2954,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2980,19 +2977,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3003,19 +3000,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3026,19 +3023,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3049,19 +3046,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3072,16 +3069,16 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>26</v>
@@ -3095,19 +3092,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3118,16 +3115,16 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>29</v>
@@ -3141,19 +3138,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3164,19 +3161,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3187,19 +3184,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3210,177 +3207,177 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>26</v>
@@ -3389,44 +3386,44 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>29</v>
@@ -3435,251 +3432,251 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="E131" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>26</v>
@@ -3688,44 +3685,44 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>29</v>
@@ -3734,228 +3731,228 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="E145" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="E146" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="E147" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="E148" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="E149" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>26</v>
@@ -3964,44 +3961,44 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="E151" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>29</v>
@@ -4010,81 +4007,81 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="E153" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="E154" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="E155" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>39</v>
@@ -4093,21 +4090,21 @@
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F156" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>42</v>
@@ -4116,7 +4113,7 @@
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>43</v>
@@ -4125,12 +4122,12 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>44</v>
@@ -4139,7 +4136,7 @@
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>45</v>
@@ -4148,12 +4145,12 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>46</v>
@@ -4162,7 +4159,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>47</v>
@@ -4171,12 +4168,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>48</v>
@@ -4185,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>49</v>
@@ -4194,12 +4191,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>50</v>
@@ -4208,7 +4205,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>51</v>
@@ -4217,12 +4214,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>52</v>
@@ -4231,7 +4228,7 @@
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>53</v>
@@ -4240,12 +4237,12 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>54</v>
@@ -4254,21 +4251,21 @@
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F163" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>56</v>
@@ -4277,7 +4274,7 @@
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>57</v>
@@ -4286,12 +4283,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>58</v>
@@ -4300,21 +4297,21 @@
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F165" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>60</v>
@@ -4323,7 +4320,7 @@
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>61</v>
@@ -4332,12 +4329,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>62</v>
@@ -4346,7 +4343,7 @@
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>63</v>
@@ -4355,12 +4352,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>64</v>
@@ -4369,7 +4366,7 @@
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>65</v>
@@ -4378,12 +4375,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>66</v>
@@ -4392,7 +4389,7 @@
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>67</v>
@@ -4401,12 +4398,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>68</v>
@@ -4415,7 +4412,7 @@
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>69</v>
@@ -4424,12 +4421,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>70</v>
@@ -4438,21 +4435,21 @@
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F171" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>72</v>
@@ -4461,7 +4458,7 @@
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>73</v>
@@ -4470,12 +4467,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>74</v>
@@ -4484,21 +4481,21 @@
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F173" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>76</v>
@@ -4507,21 +4504,21 @@
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F174" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>78</v>
@@ -4530,7 +4527,7 @@
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>79</v>
@@ -4539,12 +4536,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>80</v>
@@ -4553,7 +4550,7 @@
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>81</v>
@@ -4562,12 +4559,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>82</v>
@@ -4576,7 +4573,7 @@
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>83</v>
@@ -4585,24 +4582,24 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
+      <c r="E178" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4613,19 +4610,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>17</v>
@@ -4636,10 +4633,10 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -4648,7 +4645,7 @@
         <v>25</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4659,19 +4656,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="E181" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -53,232 +53,235 @@
     <t>NO</t>
   </si>
   <si>
+    <t>evento.datiAssenso.tipoAssenso,=,1 || evento.datiAssenso.tipoAssenso,=,2 || evento.datiAssenso.tipoAssenso,=,3</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>111-bis</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Si puo' ignorare la sezione per</t>
+  </si>
+  <si>
+    <t>Formazione atto</t>
+  </si>
+  <si>
+    <t>Numero comunale</t>
+  </si>
+  <si>
+    <t>evento</t>
+  </si>
+  <si>
+    <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
+    <t>Data formazione</t>
+  </si>
+  <si>
+    <t>dataformazione</t>
+  </si>
+  <si>
+    <t>Ora formazione</t>
+  </si>
+  <si>
+    <t>ora</t>
+  </si>
+  <si>
+    <t>Minuti formazione</t>
+  </si>
+  <si>
+    <t>minuto</t>
+  </si>
+  <si>
+    <t>Dati generali</t>
+  </si>
+  <si>
+    <t>Presentazione documenti</t>
+  </si>
+  <si>
+    <t>datiProdotti</t>
+  </si>
+  <si>
+    <t>Dichiarante</t>
+  </si>
+  <si>
+    <t>tipoDichiarante</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.dichiarante</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Madre</t>
+  </si>
+  <si>
+    <t>evento.madre</t>
+  </si>
+  <si>
+    <t>evento.datiAssenso.tipoAssenso,=,2</t>
+  </si>
+  <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
     <t>evento.datiAssenso.tipoAssenso,=,1</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>111-bis</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formazione atto</t>
-  </si>
-  <si>
-    <t>Numero comunale</t>
-  </si>
-  <si>
-    <t>evento</t>
-  </si>
-  <si>
-    <t>numeroatto</t>
-  </si>
-  <si>
-    <t>obbligatoria</t>
-  </si>
-  <si>
-    <t>Data formazione</t>
-  </si>
-  <si>
-    <t>dataformazione</t>
-  </si>
-  <si>
-    <t>Ora formazione</t>
-  </si>
-  <si>
-    <t>ora</t>
-  </si>
-  <si>
-    <t>Minuti formazione</t>
-  </si>
-  <si>
-    <t>minuto</t>
-  </si>
-  <si>
-    <t>Dati generali</t>
-  </si>
-  <si>
-    <t>Presentazione documenti</t>
-  </si>
-  <si>
-    <t>datiProdotti</t>
-  </si>
-  <si>
-    <t>Dichiarante</t>
-  </si>
-  <si>
-    <t>tipoDichiarante</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
-    <t>evento.dichiarante</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Madre</t>
-  </si>
-  <si>
-    <t>evento.madre</t>
-  </si>
-  <si>
-    <t>evento.datiAssenso.tipoAssenso,=,2</t>
-  </si>
-  <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>evento.padre</t>
   </si>
   <si>
     <t>Figlio</t>
@@ -511,7 +514,7 @@
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="33.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="103.66015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1937,7 +1940,7 @@
         <v>15</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63">
@@ -1960,7 +1963,7 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64">
@@ -1983,7 +1986,7 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65">
@@ -2006,7 +2009,7 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66">
@@ -2029,7 +2032,7 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67">
@@ -2052,7 +2055,7 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68">
@@ -2075,7 +2078,7 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69">
@@ -2098,7 +2101,7 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70">
@@ -2121,7 +2124,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71">
@@ -2144,7 +2147,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72">
@@ -2167,7 +2170,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73">
@@ -2190,7 +2193,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74">
@@ -2213,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75">
@@ -2236,7 +2239,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76">
@@ -2259,7 +2262,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77">
@@ -2282,7 +2285,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78">
@@ -2305,7 +2308,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79">
@@ -2328,7 +2331,7 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80">
@@ -2351,7 +2354,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81">
@@ -2374,7 +2377,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82">
@@ -2397,7 +2400,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83">
@@ -2420,12 +2423,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>39</v>
@@ -2434,7 +2437,7 @@
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>41</v>
@@ -2448,7 +2451,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>42</v>
@@ -2457,7 +2460,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>43</v>
@@ -2471,7 +2474,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>44</v>
@@ -2480,7 +2483,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>45</v>
@@ -2494,7 +2497,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>46</v>
@@ -2503,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>47</v>
@@ -2517,7 +2520,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>48</v>
@@ -2526,7 +2529,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>49</v>
@@ -2540,7 +2543,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>50</v>
@@ -2549,7 +2552,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>51</v>
@@ -2563,7 +2566,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>52</v>
@@ -2572,7 +2575,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>53</v>
@@ -2586,7 +2589,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>54</v>
@@ -2595,7 +2598,7 @@
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>55</v>
@@ -2609,7 +2612,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>56</v>
@@ -2618,7 +2621,7 @@
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>57</v>
@@ -2632,7 +2635,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>58</v>
@@ -2641,7 +2644,7 @@
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>59</v>
@@ -2655,7 +2658,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>60</v>
@@ -2664,7 +2667,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>61</v>
@@ -2678,7 +2681,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>62</v>
@@ -2687,7 +2690,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>63</v>
@@ -2701,7 +2704,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>64</v>
@@ -2710,7 +2713,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>65</v>
@@ -2724,7 +2727,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>66</v>
@@ -2733,7 +2736,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>67</v>
@@ -2747,7 +2750,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>68</v>
@@ -2756,7 +2759,7 @@
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>69</v>
@@ -2770,7 +2773,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>70</v>
@@ -2779,7 +2782,7 @@
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>71</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>72</v>
@@ -2802,7 +2805,7 @@
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>73</v>
@@ -2816,7 +2819,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>74</v>
@@ -2825,7 +2828,7 @@
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>75</v>
@@ -2839,7 +2842,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>76</v>
@@ -2848,7 +2851,7 @@
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>77</v>
@@ -2862,7 +2865,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>78</v>
@@ -2871,7 +2874,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>79</v>
@@ -2885,7 +2888,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>80</v>
@@ -2894,7 +2897,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>81</v>
@@ -2908,7 +2911,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>82</v>
@@ -2917,7 +2920,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>83</v>
@@ -2931,19 +2934,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2954,19 +2957,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2977,19 +2980,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3000,19 +3003,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3023,19 +3026,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3046,19 +3049,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3069,16 +3072,16 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>26</v>
@@ -3092,19 +3095,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3115,16 +3118,16 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>29</v>
@@ -3138,19 +3141,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3161,19 +3164,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3184,19 +3187,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3207,177 +3210,177 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>26</v>
@@ -3386,44 +3389,44 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>29</v>
@@ -3432,251 +3435,251 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>26</v>
@@ -3685,44 +3688,44 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>29</v>
@@ -3731,228 +3734,228 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>26</v>
@@ -3961,44 +3964,44 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>29</v>
@@ -4007,81 +4010,81 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>39</v>
@@ -4090,21 +4093,21 @@
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>42</v>
@@ -4113,7 +4116,7 @@
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>43</v>
@@ -4122,12 +4125,12 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>44</v>
@@ -4136,7 +4139,7 @@
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>45</v>
@@ -4145,12 +4148,12 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>46</v>
@@ -4159,7 +4162,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>47</v>
@@ -4168,12 +4171,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>48</v>
@@ -4182,7 +4185,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>49</v>
@@ -4191,12 +4194,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>50</v>
@@ -4205,7 +4208,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>51</v>
@@ -4214,12 +4217,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>52</v>
@@ -4228,7 +4231,7 @@
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>53</v>
@@ -4237,12 +4240,12 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>54</v>
@@ -4251,21 +4254,21 @@
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>56</v>
@@ -4274,7 +4277,7 @@
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>57</v>
@@ -4283,12 +4286,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>58</v>
@@ -4297,21 +4300,21 @@
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>60</v>
@@ -4320,7 +4323,7 @@
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>61</v>
@@ -4329,12 +4332,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>62</v>
@@ -4343,7 +4346,7 @@
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>63</v>
@@ -4352,12 +4355,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>64</v>
@@ -4366,7 +4369,7 @@
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>65</v>
@@ -4375,12 +4378,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>66</v>
@@ -4389,7 +4392,7 @@
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>67</v>
@@ -4398,12 +4401,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>68</v>
@@ -4412,7 +4415,7 @@
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>69</v>
@@ -4421,12 +4424,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>70</v>
@@ -4435,21 +4438,21 @@
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>72</v>
@@ -4458,7 +4461,7 @@
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>73</v>
@@ -4467,12 +4470,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>74</v>
@@ -4481,21 +4484,21 @@
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>76</v>
@@ -4504,21 +4507,21 @@
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>78</v>
@@ -4527,7 +4530,7 @@
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>79</v>
@@ -4536,12 +4539,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>80</v>
@@ -4550,7 +4553,7 @@
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>81</v>
@@ -4559,12 +4562,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>82</v>
@@ -4573,7 +4576,7 @@
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>83</v>
@@ -4582,24 +4585,24 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4610,19 +4613,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>17</v>
@@ -4633,10 +4636,10 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -4645,7 +4648,7 @@
         <v>25</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4656,19 +4659,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -194,6 +194,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -344,22 +350,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Atto riconoscimento paterno</t>
@@ -502,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1416,1103 +1422,1103 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>27</v>
@@ -2520,19 +2526,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2543,19 +2549,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2566,19 +2572,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2589,22 +2595,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>27</v>
@@ -2612,19 +2618,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2635,22 +2641,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>27</v>
@@ -2658,22 +2664,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>27</v>
@@ -2681,19 +2687,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2704,22 +2710,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>27</v>
@@ -2727,22 +2733,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>27</v>
@@ -2750,19 +2756,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2773,22 +2779,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>27</v>
@@ -2796,19 +2802,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2819,22 +2825,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>27</v>
@@ -2842,22 +2848,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>27</v>
@@ -2865,22 +2871,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>27</v>
@@ -2888,19 +2894,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2911,22 +2917,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>27</v>
@@ -2937,19 +2943,19 @@
         <v>92</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>27</v>
@@ -2960,16 +2966,16 @@
         <v>92</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2983,16 +2989,16 @@
         <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3006,16 +3012,16 @@
         <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3026,19 +3032,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3049,19 +3055,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3072,19 +3078,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3095,19 +3101,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3118,19 +3124,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3141,19 +3147,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3164,19 +3170,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3187,19 +3193,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3210,309 +3216,309 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3521,90 +3527,90 @@
         <v>123</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3613,274 +3619,274 @@
         <v>125</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -3889,794 +3895,909 @@
         <v>127</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="E156" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
+      <c r="E157" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
+      <c r="E158" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
+      <c r="E159" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F178" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="G178" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F179" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G179" s="2" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -416,7 +416,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4691,7 +4694,7 @@
         <v>131</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -4711,19 +4714,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4734,19 +4737,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>17</v>
@@ -4757,10 +4760,10 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -4769,7 +4772,7 @@
         <v>25</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4780,19 +4783,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -417,9 +417,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4694,7 +4691,7 @@
         <v>131</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -4714,19 +4711,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4737,19 +4734,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>17</v>
@@ -4760,10 +4757,10 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -4772,7 +4769,7 @@
         <v>25</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4783,19 +4780,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
+      <c r="E186" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4691,7 +4694,7 @@
         <v>131</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -4711,19 +4714,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4734,19 +4737,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>17</v>
@@ -4757,10 +4760,10 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -4769,7 +4772,7 @@
         <v>25</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4780,19 +4783,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -279,6 +279,36 @@
   </si>
   <si>
     <t>evento.datiAssenso.tipoAssenso,=,2</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -511,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -521,7 +551,7 @@
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="103.66015625" customWidth="true" bestFit="true"/>
   </cols>
@@ -1977,778 +2007,778 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>15</v>
@@ -2759,19 +2789,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2782,19 +2812,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2805,19 +2835,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2828,19 +2858,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2851,19 +2881,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2874,22 +2904,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>27</v>
@@ -2897,22 +2927,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>27</v>
@@ -2920,22 +2950,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>27</v>
@@ -2943,19 +2973,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>15</v>
@@ -2966,22 +2996,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>27</v>
@@ -2989,19 +3019,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3012,19 +3042,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3035,19 +3065,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3058,19 +3088,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3081,19 +3111,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3104,22 +3134,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>27</v>
@@ -3127,19 +3157,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3150,22 +3180,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>27</v>
@@ -3173,22 +3203,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>27</v>
@@ -3196,19 +3226,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3219,19 +3249,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3242,19 +3272,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3265,19 +3295,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3288,22 +3318,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>27</v>
@@ -3311,30 +3341,30 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>95</v>
@@ -3343,568 +3373,568 @@
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F133" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="148">
@@ -3912,895 +3942,1217 @@
         <v>128</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E185" s="2" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E186" s="2" t="s">
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
+      <c r="B197" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -146,6 +146,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -200,13 +206,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -541,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1478,1379 +1484,1379 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>27</v>
@@ -2858,19 +2864,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2881,19 +2887,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2904,19 +2910,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2927,22 +2933,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>27</v>
@@ -2950,19 +2956,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2973,22 +2979,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>27</v>
@@ -2996,22 +3002,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>27</v>
@@ -3019,22 +3025,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>27</v>
@@ -3042,19 +3048,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3065,22 +3071,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>27</v>
@@ -3088,22 +3094,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>27</v>
@@ -3111,19 +3117,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3134,22 +3140,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>27</v>
@@ -3157,19 +3163,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3180,22 +3186,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>27</v>
@@ -3203,22 +3209,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>27</v>
@@ -3226,22 +3232,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>27</v>
@@ -3249,19 +3255,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3272,22 +3278,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>27</v>
@@ -3295,22 +3301,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>27</v>
@@ -3318,22 +3324,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>27</v>
@@ -3341,19 +3347,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3364,22 +3370,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>27</v>
@@ -3390,16 +3396,16 @@
         <v>104</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3413,19 +3419,19 @@
         <v>104</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>27</v>
@@ -3436,16 +3442,16 @@
         <v>104</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3459,19 +3465,19 @@
         <v>104</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>27</v>
@@ -3479,19 +3485,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3502,19 +3508,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3525,19 +3531,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3548,19 +3554,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3571,19 +3577,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3594,19 +3600,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3617,19 +3623,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3640,19 +3646,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3663,309 +3669,309 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -3974,90 +3980,90 @@
         <v>135</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4066,274 +4072,274 @@
         <v>137</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4342,817 +4348,932 @@
         <v>139</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" s="2" t="s">
+      <c r="E174" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
+      <c r="E175" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
+      <c r="E176" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
+      <c r="E177" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B200" s="2" t="s">
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="2" t="s">
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -547,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1507,1425 +1513,1425 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E66" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>27</v>
@@ -2933,19 +2939,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2956,19 +2962,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2979,19 +2985,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3002,19 +3008,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3025,22 +3031,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>27</v>
@@ -3048,19 +3054,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3071,22 +3077,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>27</v>
@@ -3094,19 +3100,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>15</v>
@@ -3117,19 +3123,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3140,22 +3146,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>27</v>
@@ -3163,22 +3169,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>27</v>
@@ -3186,19 +3192,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3209,19 +3215,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3232,19 +3238,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>15</v>
@@ -3255,19 +3261,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3278,19 +3284,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>15</v>
@@ -3301,22 +3307,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>27</v>
@@ -3324,22 +3330,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>27</v>
@@ -3347,19 +3353,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3370,22 +3376,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>27</v>
@@ -3393,22 +3399,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>27</v>
@@ -3416,22 +3422,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>27</v>
@@ -3439,19 +3445,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3462,22 +3468,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>27</v>
@@ -3488,16 +3494,16 @@
         <v>106</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3511,19 +3517,19 @@
         <v>106</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>27</v>
@@ -3534,16 +3540,16 @@
         <v>106</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3557,19 +3563,19 @@
         <v>106</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>27</v>
@@ -3577,19 +3583,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3600,19 +3606,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3623,19 +3629,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3646,19 +3652,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3669,19 +3675,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3692,19 +3698,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3715,19 +3721,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3738,19 +3744,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3761,309 +3767,309 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4072,90 +4078,90 @@
         <v>137</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4164,274 +4170,274 @@
         <v>139</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4440,840 +4446,955 @@
         <v>141</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D178" s="2" t="s">
+      <c r="E178" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
+      <c r="E179" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" s="2" t="s">
+      <c r="E180" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="E181" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B205" s="2" t="s">
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="2" t="s">
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E205" s="2" t="s">
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F205" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G205" s="2" t="s">
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -553,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1536,1471 +1542,1471 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>27</v>
@@ -3008,19 +3014,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3031,19 +3037,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3054,19 +3060,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3077,19 +3083,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3100,22 +3106,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>27</v>
@@ -3123,19 +3129,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3146,22 +3152,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>27</v>
@@ -3169,19 +3175,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>15</v>
@@ -3192,19 +3198,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3215,22 +3221,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>27</v>
@@ -3238,19 +3244,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>15</v>
@@ -3261,19 +3267,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3284,22 +3290,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>27</v>
@@ -3307,22 +3313,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>27</v>
@@ -3330,19 +3336,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>15</v>
@@ -3353,19 +3359,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3376,19 +3382,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>15</v>
@@ -3399,22 +3405,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>27</v>
@@ -3422,22 +3428,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>27</v>
@@ -3445,19 +3451,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3468,22 +3474,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>27</v>
@@ -3491,22 +3497,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>27</v>
@@ -3514,22 +3520,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>27</v>
@@ -3537,19 +3543,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3560,22 +3566,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>27</v>
@@ -3586,16 +3592,16 @@
         <v>108</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3609,19 +3615,19 @@
         <v>108</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>27</v>
@@ -3632,16 +3638,16 @@
         <v>108</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3655,19 +3661,19 @@
         <v>108</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>27</v>
@@ -3675,19 +3681,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3698,19 +3704,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3721,19 +3727,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3744,19 +3750,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3767,19 +3773,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3790,19 +3796,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3813,19 +3819,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3836,19 +3842,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3859,309 +3865,309 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4170,90 +4176,90 @@
         <v>139</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4262,274 +4268,274 @@
         <v>141</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -4538,863 +4544,978 @@
         <v>143</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="2" t="s">
+      <c r="E182" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="E184" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="E185" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G208" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B210" s="2" t="s">
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D210" s="2" t="s">
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="2" t="s">
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -408,6 +408,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -559,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:H219"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3940,7 +3946,7 @@
         <v>132</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>112</v>
@@ -3957,355 +3963,355 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4314,251 +4320,251 @@
         <v>143</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
@@ -4567,44 +4573,44 @@
         <v>145</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -4613,909 +4619,1001 @@
         <v>145</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="2" t="s">
+      <c r="E186" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="E187" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="2" t="s">
+      <c r="E188" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
+      <c r="E189" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F211" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G211" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B215" s="2" t="s">
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="2" t="s">
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,13 +47,10 @@
     <t/>
   </si>
   <si>
-    <t>Copia dell'atto di assenso del figlio</t>
+    <t>Copia dell'atto di riconoscimento</t>
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>evento.datiAssenso.tipoAssenso,=,1 || evento.datiAssenso.tipoAssenso,=,2 || evento.datiAssenso.tipoAssenso,=,3</t>
   </si>
   <si>
     <t>Formula</t>
@@ -577,7 +574,7 @@
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="103.66015625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -646,15 +643,15 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -674,10 +671,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -697,10 +694,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -720,10 +717,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -743,10 +740,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -766,10 +763,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -789,10 +786,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -830,4791 +827,4791 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="F49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F116" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="E121" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="E127" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="E128" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="E129" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="E130" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="E131" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="E132" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="E133" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F133" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="E135" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F135" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="2" t="s">
+      <c r="E136" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
+      <c r="E149" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F159" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F160" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F161" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
+      <c r="E163" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F173" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F174" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F175" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177" s="2" t="s">
+      <c r="E177" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="E178" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="E179" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="E180" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="2" t="s">
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="E181" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="E182" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" s="2" t="s">
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="E184" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="E185" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="E186" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="2" t="s">
+      <c r="F186" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="E187" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="F187" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="E188" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="2" t="s">
+      <c r="F188" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="E189" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="2" t="s">
+      <c r="E190" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F190" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E190" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F190" s="2" t="s">
+      <c r="G190" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="E191" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="E192" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="E193" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="E194" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="E195" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="E196" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="E197" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="E198" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D198" s="2" t="s">
+      <c r="F198" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E198" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F198" s="2" t="s">
+      <c r="G198" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="E199" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="E200" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" s="2" t="s">
+      <c r="F200" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E200" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F200" s="2" t="s">
+      <c r="G200" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="E201" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201" s="2" t="s">
+      <c r="F201" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E201" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F201" s="2" t="s">
+      <c r="G201" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="E202" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="E203" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203" s="2" t="s">
+      <c r="F203" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E203" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G203" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="E204" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D204" s="2" t="s">
+      <c r="F204" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E204" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F204" s="2" t="s">
+      <c r="G204" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="E205" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205" s="2" t="s">
+      <c r="F205" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E205" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F205" s="2" t="s">
+      <c r="G205" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="E206" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="E207" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D207" s="2" t="s">
+      <c r="F207" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E207" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F207" s="2" t="s">
+      <c r="G207" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="E208" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="E209" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D209" s="2" t="s">
+      <c r="F209" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E209" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F209" s="2" t="s">
+      <c r="G209" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="E210" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="E211" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D211" s="2" t="s">
+      <c r="F211" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E211" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F211" s="2" t="s">
+      <c r="G211" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="E212" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212" s="2" t="s">
+      <c r="F212" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E212" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F212" s="2" t="s">
+      <c r="G212" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="E213" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="E214" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E215" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="2" t="s">
+      <c r="E216" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E216" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F217" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" s="2" t="s">
+      <c r="E219" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E219" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="168">
   <si>
     <t>Sezione</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -562,7 +574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H219"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1568,1586 +1580,1586 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>26</v>
@@ -3155,19 +3167,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3178,22 +3190,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>26</v>
@@ -3201,19 +3213,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3224,22 +3236,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>26</v>
@@ -3247,19 +3259,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>14</v>
@@ -3270,19 +3282,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3293,19 +3305,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3316,22 +3328,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>26</v>
@@ -3339,22 +3351,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>26</v>
@@ -3362,22 +3374,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>26</v>
@@ -3385,22 +3397,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>26</v>
@@ -3408,22 +3420,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>26</v>
@@ -3431,19 +3443,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>14</v>
@@ -3454,19 +3466,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3477,22 +3489,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>26</v>
@@ -3500,19 +3512,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>14</v>
@@ -3523,22 +3535,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>26</v>
@@ -3546,19 +3558,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3569,22 +3581,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>26</v>
@@ -3592,19 +3604,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3615,19 +3627,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>14</v>
@@ -3638,19 +3650,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3661,19 +3673,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>14</v>
@@ -3684,22 +3696,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>26</v>
@@ -3707,19 +3719,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3730,19 +3742,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3753,19 +3765,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3776,19 +3788,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3799,22 +3811,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>26</v>
@@ -3822,19 +3834,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3845,22 +3857,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>26</v>
@@ -3868,19 +3880,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3891,19 +3903,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3914,19 +3926,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3937,19 +3949,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3960,19 +3972,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3983,341 +3995,341 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="E152" s="2" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4328,19 +4340,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4351,10 +4363,10 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4363,7 +4375,7 @@
         <v>144</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4374,10 +4386,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4386,7 +4398,7 @@
         <v>144</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4397,22 +4409,22 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>143</v>
@@ -4420,22 +4432,22 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>143</v>
@@ -4443,22 +4455,22 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>143</v>
@@ -4466,10 +4478,10 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4478,7 +4490,7 @@
         <v>144</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4489,140 +4501,140 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="177">
@@ -4630,16 +4642,16 @@
         <v>145</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4653,16 +4665,16 @@
         <v>145</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4676,16 +4688,16 @@
         <v>145</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4699,16 +4711,16 @@
         <v>145</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4722,19 +4734,19 @@
         <v>145</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>147</v>
@@ -4745,19 +4757,19 @@
         <v>145</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>147</v>
@@ -4768,19 +4780,19 @@
         <v>145</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>147</v>
@@ -4791,16 +4803,16 @@
         <v>145</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4811,137 +4823,137 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>151</v>
@@ -4949,19 +4961,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -4972,19 +4984,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -4995,19 +5007,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5018,22 +5030,22 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>151</v>
@@ -5041,22 +5053,22 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>151</v>
@@ -5064,22 +5076,22 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>151</v>
@@ -5087,19 +5099,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5110,507 +5122,737 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="2" t="s">
+      <c r="E216" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D217" s="2" t="s">
+      <c r="E217" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E218" s="2" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="E219" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" s="2" t="s">
+      <c r="C227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E219" s="2" t="s">
+      <c r="F227" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F219" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G219" s="2" t="s">
+      <c r="C228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
         <v>26</v>
       </c>
     </row>
